--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-67\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3A7712-2110-4ED2-B7BB-256CBE29F449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F15310-743E-45DF-9067-8247F2B2A98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15825" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -930,10 +930,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1088,7 +1088,9 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F15310-743E-45DF-9067-8247F2B2A98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A3735B-BAFF-457D-9B91-F162F53F4C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,7 +933,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>30</v>

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A3735B-BAFF-457D-9B91-F162F53F4C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E6658-09D7-4BD3-A374-5B1617A1744B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>regex(., '^(AN|BL|IN|OT|PA|SD|SX|WD|OA)-[A-C]$')</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
   </si>
 </sst>
 </file>
@@ -927,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -949,11 +952,12 @@
     <col min="9" max="9" width="27.375" style="20" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="7"/>
     <col min="11" max="11" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="12.5" style="7"/>
+    <col min="12" max="12" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="12.5" style="7"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -987,8 +991,11 @@
       <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1017,9 @@
       <c r="I2" s="16"/>
       <c r="J2" s="11"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1033,8 +1041,9 @@
         <v>19</v>
       </c>
       <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1054,8 +1063,9 @@
       <c r="I4" s="17"/>
       <c r="J4" s="10"/>
       <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1083,9 @@
       <c r="I5" s="17"/>
       <c r="J5" s="10"/>
       <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1098,8 +1109,9 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1117,8 +1129,9 @@
       <c r="I7" s="17"/>
       <c r="J7" s="10"/>
       <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1136,8 +1149,9 @@
       <c r="I8" s="17"/>
       <c r="J8" s="10"/>
       <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1151,8 +1165,9 @@
       <c r="I9" s="17"/>
       <c r="J9" s="10"/>
       <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1166,8 +1181,12 @@
       <c r="I10" s="16"/>
       <c r="J10" s="11"/>
       <c r="K10" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1187,8 +1206,9 @@
       <c r="K12" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -1208,8 +1228,9 @@
       <c r="K13" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1231,8 +1252,11 @@
       <c r="K14" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="105">
+      <c r="L14" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="105">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -1250,8 +1274,9 @@
       <c r="I15" s="19"/>
       <c r="J15" s="14"/>
       <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -1271,8 +1296,9 @@
       <c r="I16" s="19"/>
       <c r="J16" s="14"/>
       <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -1294,8 +1320,9 @@
       <c r="I17" s="19"/>
       <c r="J17" s="14"/>
       <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1317,8 +1344,9 @@
       <c r="I18" s="19"/>
       <c r="J18" s="14"/>
       <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="25.5">
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -1344,8 +1372,9 @@
         <v>56</v>
       </c>
       <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="14" t="s">
         <v>57</v>
       </c>
@@ -1365,8 +1394,9 @@
       <c r="I20" s="19"/>
       <c r="J20" s="14"/>
       <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="60">
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" ht="60">
       <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
@@ -1390,8 +1420,9 @@
       <c r="I21" s="19"/>
       <c r="J21" s="14"/>
       <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" ht="75">
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="75">
       <c r="A22" s="14" t="s">
         <v>15</v>
       </c>
@@ -1411,8 +1442,9 @@
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="14" t="s">
         <v>15</v>
       </c>
@@ -1430,6 +1462,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="14"/>
       <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-99\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E6658-09D7-4BD3-A374-5B1617A1744B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF4270-D0DA-4B8C-A7D5-61E219051A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="153">
   <si>
     <t>type</t>
   </si>
@@ -366,6 +366,126 @@
   </si>
   <si>
     <t>instance::tag</t>
+  </si>
+  <si>
+    <t>select_one sites</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Where did the man receive care?</t>
+  </si>
+  <si>
+    <t>select_one reviewers</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>Who reviewed the client?</t>
+  </si>
+  <si>
+    <t>reviewers</t>
+  </si>
+  <si>
+    <t>DoH nurse</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>sites</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>Ekurhuleni</t>
+  </si>
+  <si>
+    <t>Bojanala</t>
+  </si>
+  <si>
+    <t>ekurhuleni</t>
+  </si>
+  <si>
+    <t>bojanala</t>
+  </si>
+  <si>
+    <t>Tsakane Clinic</t>
+  </si>
+  <si>
+    <t>Katlehong Clinic</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Winnie Mandela Clinic</t>
+  </si>
+  <si>
+    <t>Bafokeng</t>
+  </si>
+  <si>
+    <t>Letlhabile</t>
+  </si>
+  <si>
+    <t>winnie_mandela</t>
+  </si>
+  <si>
+    <t>tsakane</t>
+  </si>
+  <si>
+    <t>katlehong</t>
+  </si>
+  <si>
+    <t>bafokeng</t>
+  </si>
+  <si>
+    <t>letlhabile</t>
+  </si>
+  <si>
+    <t>mogwase</t>
+  </si>
+  <si>
+    <t>mobile-e</t>
+  </si>
+  <si>
+    <t>mobile-b</t>
+  </si>
+  <si>
+    <t>Mogwase Clinic</t>
+  </si>
+  <si>
+    <t>select_one districts</t>
+  </si>
+  <si>
+    <t>${district} = district</t>
+  </si>
+  <si>
+    <t>not(${district} = '')</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>Dedicated/mobile VMMC team</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
 </sst>
 </file>
@@ -930,16 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22.375" style="7"/>
     <col min="2" max="2" width="21" style="7"/>
@@ -952,12 +1072,13 @@
     <col min="9" max="9" width="27.375" style="20" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="7"/>
     <col min="11" max="11" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="12.5" style="7"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="12" max="12" width="13.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="12.5" style="7"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -992,10 +1113,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1018,8 +1142,9 @@
       <c r="J2" s="11"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1042,8 +1167,9 @@
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1064,8 +1190,9 @@
       <c r="J4" s="10"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1211,9 @@
       <c r="J5" s="10"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1110,8 +1238,9 @@
       <c r="J6" s="10"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1130,8 +1259,9 @@
       <c r="J7" s="10"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1150,8 +1280,9 @@
       <c r="J8" s="10"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1166,8 +1297,9 @@
       <c r="J9" s="10"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1182,11 +1314,13 @@
       <c r="J10" s="11"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
       <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1207,8 +1341,9 @@
         <v>35</v>
       </c>
       <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -1229,8 +1364,9 @@
         <v>37</v>
       </c>
       <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1252,11 +1388,12 @@
       <c r="K14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="105">
+    <row r="15" spans="1:13" ht="105">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -1275,8 +1412,9 @@
       <c r="J15" s="14"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -1297,8 +1435,9 @@
       <c r="J16" s="14"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" ht="15">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -1321,8 +1460,9 @@
       <c r="J17" s="14"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1345,124 +1485,273 @@
       <c r="J18" s="14"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5">
-      <c r="A19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" ht="15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>106</v>
-      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="J19" s="14"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="25.5">
       <c r="A20" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="I20" s="19"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="1:12" ht="60">
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>109</v>
-      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="19"/>
       <c r="J21" s="14"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" ht="75">
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" ht="15">
       <c r="A22" s="14" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="F22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="14"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" s="14" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="19"/>
       <c r="J23" s="14"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" ht="15">
+      <c r="A24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" ht="15">
+      <c r="A26" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" ht="15">
+      <c r="A27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" ht="60">
+      <c r="A28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" ht="75">
+      <c r="A29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" ht="15">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1472,23 +1761,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="7"/>
-    <col min="2" max="2" width="12.5" style="7"/>
-    <col min="3" max="3" width="19.375" style="7"/>
+    <col min="2" max="2" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="12.5" style="7"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1498,8 +1787,11 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
@@ -1510,7 +1802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
@@ -1521,12 +1813,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
@@ -1548,7 +1840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -1559,7 +1851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -1592,12 +1884,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
@@ -1608,7 +1900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -1619,7 +1911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
@@ -1630,7 +1922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -1639,6 +1931,162 @@
       </c>
       <c r="C15" s="8" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-99\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF4270-D0DA-4B8C-A7D5-61E219051A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAABD308-509C-4371-BA5E-7975A5D583DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>type</t>
   </si>
@@ -362,9 +371,6 @@
     <t>Name of Health Care Provider who reviewed the client</t>
   </si>
   <si>
-    <t>regex(., '^(AN|BL|IN|OT|PA|SD|SX|WD|OA)-[A-C]$')</t>
-  </si>
-  <si>
     <t>instance::tag</t>
   </si>
   <si>
@@ -416,15 +422,6 @@
     <t>bojanala</t>
   </si>
   <si>
-    <t>Tsakane Clinic</t>
-  </si>
-  <si>
-    <t>Katlehong Clinic</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
     <t>Winnie Mandela Clinic</t>
   </si>
   <si>
@@ -437,12 +434,6 @@
     <t>winnie_mandela</t>
   </si>
   <si>
-    <t>tsakane</t>
-  </si>
-  <si>
-    <t>katlehong</t>
-  </si>
-  <si>
     <t>bafokeng</t>
   </si>
   <si>
@@ -452,12 +443,6 @@
     <t>mogwase</t>
   </si>
   <si>
-    <t>mobile-e</t>
-  </si>
-  <si>
-    <t>mobile-b</t>
-  </si>
-  <si>
     <t>Mogwase Clinic</t>
   </si>
   <si>
@@ -486,6 +471,15 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>bapong</t>
+  </si>
+  <si>
+    <t>Bapong Clinic</t>
+  </si>
+  <si>
+    <t>regex(., '^(AN|BL|IN|OT|PA|SD|SX|WD|OA)-[A-C]$') or regex(., '^(an|bl|in|ot|pa|sd|sx|wd|oa)-[a-c]$')</t>
   </si>
 </sst>
 </file>
@@ -1052,14 +1046,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.375" style="7"/>
     <col min="2" max="2" width="21" style="7"/>
@@ -1078,7 +1072,7 @@
     <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1113,13 +1107,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1138,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1163,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1186,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:13">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1207,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1234,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1261,7 +1255,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1276,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1299,7 +1293,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1316,11 +1310,11 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13">
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1343,7 +1337,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1360,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1408,7 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -1437,7 +1431,7 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
     </row>
-    <row r="17" spans="1:13" ht="15">
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -1462,7 +1456,7 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1481,7 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:13">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="19"/>
@@ -1531,15 +1525,15 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:13" ht="15">
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="14" t="s">
@@ -1554,15 +1548,15 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
     </row>
-    <row r="22" spans="1:13" ht="15">
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
@@ -1579,16 +1573,16 @@
     </row>
     <row r="23" spans="1:13" ht="30">
       <c r="A23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
@@ -1600,11 +1594,11 @@
       <c r="J23" s="14"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
@@ -1621,7 +1615,7 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="19"/>
@@ -1636,15 +1630,15 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:13" ht="15">
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="14"/>
@@ -1659,7 +1653,7 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13" ht="15">
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
@@ -1698,7 +1692,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="21" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>109</v>
@@ -1732,7 +1726,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" ht="15">
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -1761,11 +1755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1788,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1935,68 +1929,68 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>129</v>
@@ -2007,10 +2001,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>130</v>
@@ -2021,13 +2015,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>127</v>
@@ -2035,58 +2029,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-99\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAABD308-509C-4371-BA5E-7975A5D583DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0984A5B7-47D9-EB4E-962A-9EC9CA219DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -425,12 +425,6 @@
     <t>Winnie Mandela Clinic</t>
   </si>
   <si>
-    <t>Bafokeng</t>
-  </si>
-  <si>
-    <t>Letlhabile</t>
-  </si>
-  <si>
     <t>winnie_mandela</t>
   </si>
   <si>
@@ -480,6 +474,12 @@
   </si>
   <si>
     <t>regex(., '^(AN|BL|IN|OT|PA|SD|SX|WD|OA)-[A-C]$') or regex(., '^(an|bl|in|ot|pa|sd|sx|wd|oa)-[a-c]$')</t>
+  </si>
+  <si>
+    <t>Bafokeng Clinic</t>
+  </si>
+  <si>
+    <t>Mobile Unit</t>
   </si>
 </sst>
 </file>
@@ -1046,33 +1046,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="7"/>
+    <col min="1" max="1" width="22.33203125" style="7"/>
     <col min="2" max="2" width="21" style="7"/>
-    <col min="3" max="3" width="48.875" style="20"/>
+    <col min="3" max="3" width="48.83203125" style="20"/>
     <col min="4" max="4" width="31" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="20" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="7"/>
-    <col min="11" max="11" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="1026" width="12.5" style="7"/>
     <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="34">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1107,13 +1107,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="34">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="34">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="105">
+    <row r="15" spans="1:13" ht="119">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="17">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="17">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="17">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
     </row>
-    <row r="20" spans="1:13" ht="25.5">
+    <row r="20" spans="1:13" ht="29">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -1525,12 +1525,12 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="17">
       <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>114</v>
@@ -1548,15 +1548,15 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="17">
       <c r="A22" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
@@ -1571,7 +1571,7 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="1:13" ht="30">
+    <row r="23" spans="1:13" ht="34">
       <c r="A23" s="14" t="s">
         <v>112</v>
       </c>
@@ -1579,10 +1579,10 @@
         <v>113</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
@@ -1594,7 +1594,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M23" s="19"/>
     </row>
@@ -1630,7 +1630,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="17">
       <c r="A26" s="14" t="s">
         <v>115</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="17">
       <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="1:13" ht="60">
+    <row r="28" spans="1:13" ht="85">
       <c r="A28" s="14" t="s">
         <v>15</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>109</v>
@@ -1703,7 +1703,7 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:13" ht="75">
+    <row r="29" spans="1:13" ht="102">
       <c r="A29" s="14" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="17">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -1757,21 +1757,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10" style="7"/>
-    <col min="2" max="2" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="12.5" style="7"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:4" s="6" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1932,10 +1932,10 @@
         <v>118</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1976,7 +1976,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>128</v>
@@ -1990,10 +1990,10 @@
         <v>121</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>127</v>
@@ -2004,10 +2004,10 @@
         <v>121</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>127</v>
@@ -2018,10 +2018,10 @@
         <v>121</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>127</v>
@@ -2032,10 +2032,10 @@
         <v>121</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>127</v>
@@ -2053,16 +2053,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.125"/>
-    <col min="2" max="2" width="48.25"/>
-    <col min="3" max="3" width="36.25"/>
-    <col min="4" max="4" width="22.875"/>
+    <col min="1" max="1" width="35.1640625"/>
+    <col min="2" max="2" width="48.1640625"/>
+    <col min="3" max="3" width="36.1640625"/>
+    <col min="4" max="4" width="22.83203125"/>
     <col min="5" max="8" width="12.5"/>
     <col min="9" max="9" width="14.5"/>
     <col min="10" max="15" width="12.5"/>
-    <col min="16" max="26" width="9.625"/>
+    <col min="16" max="26" width="9.6640625"/>
     <col min="27" max="1025" width="12.5"/>
   </cols>
   <sheetData>

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420DF3D-0E80-A94C-9747-625BEA7205C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0712BE-C772-5D4A-B8F0-4AAC28E6BD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5600" windowWidth="38400" windowHeight="21600" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -158,36 +158,9 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>This information about in-person clinic visits should be copied directly from the paper VMMC Register and/or paper Client Intake Form. For all pilot and study participants, record data for MC, Day 14 Review, and any Additional Reviews. For Control Group clients, record data for MC, Day 2, Day 7, Day 14 and any Additional Reviews.</t>
   </si>
   <si>
-    <t>select_one visit</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>What type of visit are you reporting?</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>phone_credit</t>
-  </si>
-  <si>
-    <t>explanation</t>
-  </si>
-  <si>
-    <t>Explain why</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -239,30 +212,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>circumcision</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>day2</t>
-  </si>
-  <si>
-    <t>day7</t>
-  </si>
-  <si>
-    <t>day14</t>
-  </si>
-  <si>
-    <t>day42</t>
-  </si>
-  <si>
-    <t>additional</t>
-  </si>
-  <si>
-    <t>Additional Review</t>
-  </si>
-  <si>
     <t>mild</t>
   </si>
   <si>
@@ -326,27 +275,6 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>Day 2 Post Circumcision</t>
-  </si>
-  <si>
-    <t>Day 7 Post Circumcision</t>
-  </si>
-  <si>
-    <t>Day 14 Post Circumcision</t>
-  </si>
-  <si>
-    <t>Day 42 Post Circumcision</t>
-  </si>
-  <si>
-    <t>Verify ZAR 100 phone credit given to client</t>
-  </si>
-  <si>
-    <t>selected(${visit}, 'day14')</t>
-  </si>
-  <si>
-    <t>selected(${phone_credit}, 'no')</t>
-  </si>
-  <si>
     <t>selected(${ae_severity}, 'mild') or selected(${ae_severity}, 'moderate') or selected(${ae_severity}, 'severe')</t>
   </si>
   <si>
@@ -359,21 +287,12 @@
     <t>Adverse Event Code and Timing</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter valid AE Code </t>
-  </si>
-  <si>
     <t>Name of Health Care Provider who reviewed the client</t>
   </si>
   <si>
     <t>instance::tag</t>
   </si>
   <si>
-    <t>select_one sites</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>select_one reviewers</t>
   </si>
   <si>
@@ -392,54 +311,9 @@
     <t>nurse</t>
   </si>
   <si>
-    <t>sites</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>Ekurhuleni</t>
-  </si>
-  <si>
-    <t>Bojanala</t>
-  </si>
-  <si>
-    <t>ekurhuleni</t>
-  </si>
-  <si>
-    <t>bojanala</t>
-  </si>
-  <si>
-    <t>Winnie Mandela Clinic</t>
-  </si>
-  <si>
-    <t>winnie_mandela</t>
-  </si>
-  <si>
-    <t>bafokeng</t>
-  </si>
-  <si>
-    <t>letlhabile</t>
-  </si>
-  <si>
-    <t>mogwase</t>
-  </si>
-  <si>
-    <t>Mogwase Clinic</t>
-  </si>
-  <si>
-    <t>select_one districts</t>
-  </si>
-  <si>
-    <t>${district} = district</t>
-  </si>
-  <si>
-    <t>not(${district} = '')</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -452,22 +326,67 @@
     <t>District</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>bapong</t>
-  </si>
-  <si>
-    <t>Bapong Clinic</t>
-  </si>
-  <si>
-    <t>regex(., '^(AN|BL|IN|OT|PA|SD|SX|WD|OA)-[A-C]$') or regex(., '^(an|bl|in|ot|pa|sd|sx|wd|oa)-[a-c]$')</t>
-  </si>
-  <si>
-    <t>Bafokeng Clinic</t>
-  </si>
-  <si>
-    <t>Mobile Unit</t>
+    <t>enrollment_facility</t>
+  </si>
+  <si>
+    <t>db:health_center</t>
+  </si>
+  <si>
+    <t>VMMC enrollment facility</t>
+  </si>
+  <si>
+    <t>db:district_hospital</t>
+  </si>
+  <si>
+    <t>r_visit_date</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>../form/visit_date</t>
+  </si>
+  <si>
+    <t>r_visit_district</t>
+  </si>
+  <si>
+    <t>r_visit_facility</t>
+  </si>
+  <si>
+    <t>r_visit_reviewer</t>
+  </si>
+  <si>
+    <t>r_visit_ae_severity</t>
+  </si>
+  <si>
+    <t>r_visit_provider</t>
+  </si>
+  <si>
+    <t>r_visit_ae_code</t>
+  </si>
+  <si>
+    <t>r_visit_comments</t>
+  </si>
+  <si>
+    <t>../form/reviewer</t>
+  </si>
+  <si>
+    <t>../form/ae_severity</t>
+  </si>
+  <si>
+    <t>../form/ae_code</t>
+  </si>
+  <si>
+    <t>../form/care_provider</t>
+  </si>
+  <si>
+    <t>../form/comments</t>
+  </si>
+  <si>
+    <t>../form/district/name</t>
+  </si>
+  <si>
+    <t>../form/enrollment_facility/name</t>
   </si>
 </sst>
 </file>
@@ -477,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -537,6 +456,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -582,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,11 +549,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -649,6 +608,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,13 +1012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1095,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17">
@@ -1109,7 +1089,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
@@ -1352,327 +1332,594 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="119">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:13" ht="17">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="17">
+      <c r="A15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="34">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="17">
+      <c r="A17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" ht="17">
+      <c r="A18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" ht="17">
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="1:13" ht="17">
+      <c r="A20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" ht="17">
+      <c r="A21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" ht="119">
+      <c r="A24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17">
-      <c r="A15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="17">
-      <c r="A16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13" ht="17">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="1:13" ht="29">
-      <c r="A19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13" ht="17">
-      <c r="A20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13" ht="34">
-      <c r="A21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" ht="17">
-      <c r="A23" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13" ht="17">
-      <c r="A24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="E24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="14"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:13" ht="85">
-      <c r="A25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="M24" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="14"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:13" ht="102">
+    <row r="26" spans="1:13" ht="29">
       <c r="A26" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13" ht="17">
-      <c r="A27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>61</v>
-      </c>
+    <row r="27" spans="1:13">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="19"/>
       <c r="J27" s="14"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" ht="17">
+      <c r="A28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" ht="17">
+      <c r="A29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" ht="17">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" ht="17">
+      <c r="A31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="1:13" ht="17">
+      <c r="A33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13" ht="17">
+      <c r="A34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13" ht="17">
+      <c r="A35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" ht="17">
+      <c r="A36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="102">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" ht="17">
+      <c r="A38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:13" ht="17">
+      <c r="A39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="85">
+      <c r="A40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="34">
+      <c r="A41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="17">
+      <c r="A42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1682,11 +1929,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1700,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -1709,29 +1956,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1740,232 +1987,74 @@
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>124</v>
+      <c r="A12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1995,31 +2084,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2041,29 +2130,29 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5">
         <v>43008</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>

--- a/config/itech-aurum/forms/app/client_visit.xlsx
+++ b/config/itech-aurum/forms/app/client_visit.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0712BE-C772-5D4A-B8F0-4AAC28E6BD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B4B37-AE1A-2943-B9C5-E673D4AAEF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5600" windowWidth="38400" windowHeight="21600" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>../form/enrollment_facility/name</t>
+  </si>
+  <si>
+    <t>Should be one of the following AN|BL|IN|OT|PA|SD|SX|WD|OA followed by - and a letter from A to C</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -576,13 +579,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1015,911 +1017,914 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="7"/>
-    <col min="2" max="2" width="21" style="7"/>
-    <col min="3" max="3" width="48.83203125" style="20"/>
-    <col min="4" max="4" width="31" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="7"/>
-    <col min="11" max="11" width="20.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="12.5" style="7"/>
-    <col min="1027" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="22.33203125" style="6"/>
+    <col min="2" max="2" width="21" style="6"/>
+    <col min="3" max="3" width="48.83203125" style="19"/>
+    <col min="4" max="4" width="31" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="6"/>
+    <col min="11" max="11" width="20.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="12.5" style="6"/>
+    <col min="1027" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="34">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="34">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="17">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="17">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="17">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="17">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="17">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="34">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="18" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" ht="17">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="18" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="18" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" ht="17">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="18" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="34">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="18" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="18" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13" ht="17">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="18" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="17">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="18" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" ht="17">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="18" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="17">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="18" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="1:13" ht="119">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="29">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="14" t="s">
+      <c r="I26" s="18"/>
+      <c r="J26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="17">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="17">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="17">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="17">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="17">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="17">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="17">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="17">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="102">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="17">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="17">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="85">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="I40" s="19" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="34">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="17">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1938,122 +1943,122 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10" style="7"/>
-    <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="12.5" style="7"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="10" style="6"/>
+    <col min="2" max="2" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="12.5" style="6"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2132,45 +2137,27 @@
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>43008</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
